--- a/gene_cluster_library/gene_cluster_importer/data/part_attributes.xlsx
+++ b/gene_cluster_library/gene_cluster_importer/data/part_attributes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
@@ -485,11 +485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146118216"/>
-        <c:axId val="-2146210664"/>
+        <c:axId val="2067954024"/>
+        <c:axId val="2067953000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146118216"/>
+        <c:axId val="2067954024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -499,12 +499,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146210664"/>
+        <c:crossAx val="2067953000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146210664"/>
+        <c:axId val="2067953000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146118216"/>
+        <c:crossAx val="2067954024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
